--- a/Financials/Quarterly/IMBBY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/IMBBY_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EB967D-F616-48EC-86DF-856304D69764}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IMBBY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>IMBBY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,155 +689,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E7" s="2">
         <v>43190</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43008</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42643</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42277</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18801100</v>
+        <v>21189800</v>
       </c>
       <c r="E8" s="3">
-        <v>21001500</v>
+        <v>18622900</v>
       </c>
       <c r="F8" s="3">
-        <v>18827500</v>
+        <v>20802400</v>
       </c>
       <c r="G8" s="3">
-        <v>19525400</v>
+        <v>18649000</v>
       </c>
       <c r="H8" s="3">
-        <v>16862800</v>
+        <v>19340300</v>
       </c>
       <c r="I8" s="3">
-        <v>17329000</v>
+        <v>16703000</v>
       </c>
       <c r="J8" s="3">
+        <v>17164700</v>
+      </c>
+      <c r="K8" s="3">
         <v>5840000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15971300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14919200</v>
+        <v>16622100</v>
       </c>
       <c r="E9" s="3">
-        <v>16607400</v>
+        <v>14777800</v>
       </c>
       <c r="F9" s="3">
-        <v>14758600</v>
+        <v>16450000</v>
       </c>
       <c r="G9" s="3">
-        <v>15411700</v>
+        <v>14618700</v>
       </c>
       <c r="H9" s="3">
-        <v>13133700</v>
+        <v>15265600</v>
       </c>
       <c r="I9" s="3">
-        <v>13695900</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+        <v>13009200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>13566100</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>12795200</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>3881900</v>
+        <v>4567700</v>
       </c>
       <c r="E10" s="3">
-        <v>4394100</v>
+        <v>3845100</v>
       </c>
       <c r="F10" s="3">
-        <v>4068900</v>
+        <v>4352500</v>
       </c>
       <c r="G10" s="3">
-        <v>4113700</v>
+        <v>4030300</v>
       </c>
       <c r="H10" s="3">
-        <v>3729100</v>
+        <v>4074700</v>
       </c>
       <c r="I10" s="3">
-        <v>3633000</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+        <v>3693800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3598600</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>3176100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,8 +862,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -843,8 +892,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,66 +924,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>138300</v>
+        <v>118700</v>
       </c>
       <c r="E14" s="3">
-        <v>80300</v>
+        <v>137000</v>
       </c>
       <c r="F14" s="3">
-        <v>374000</v>
+        <v>79600</v>
       </c>
       <c r="G14" s="3">
-        <v>190900</v>
+        <v>370400</v>
       </c>
       <c r="H14" s="3">
-        <v>213300</v>
+        <v>189100</v>
       </c>
       <c r="I14" s="3">
-        <v>358200</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+        <v>211300</v>
+      </c>
+      <c r="J14" s="3">
+        <v>354800</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>126400</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>692600</v>
+        <v>687400</v>
       </c>
       <c r="E15" s="3">
-        <v>708400</v>
+        <v>686100</v>
       </c>
       <c r="F15" s="3">
-        <v>729500</v>
+        <v>701700</v>
       </c>
       <c r="G15" s="3">
-        <v>700500</v>
+        <v>722600</v>
       </c>
       <c r="H15" s="3">
-        <v>622800</v>
+        <v>693900</v>
       </c>
       <c r="I15" s="3">
-        <v>513500</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+        <v>616900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>508700</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>404300</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +1001,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17704200</v>
+        <v>19136800</v>
       </c>
       <c r="E17" s="3">
-        <v>19189600</v>
+        <v>17536400</v>
       </c>
       <c r="F17" s="3">
-        <v>17639700</v>
+        <v>19007700</v>
       </c>
       <c r="G17" s="3">
-        <v>17909700</v>
+        <v>17472500</v>
       </c>
       <c r="H17" s="3">
-        <v>15543400</v>
+        <v>17739900</v>
       </c>
       <c r="I17" s="3">
-        <v>15974000</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+        <v>15396100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>15822600</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>14708500</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1096900</v>
+        <v>2053000</v>
       </c>
       <c r="E18" s="3">
-        <v>1811900</v>
+        <v>1086500</v>
       </c>
       <c r="F18" s="3">
-        <v>1187700</v>
+        <v>1794700</v>
       </c>
       <c r="G18" s="3">
-        <v>1615700</v>
+        <v>1176500</v>
       </c>
       <c r="H18" s="3">
-        <v>1319400</v>
+        <v>1600400</v>
       </c>
       <c r="I18" s="3">
-        <v>1355000</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+        <v>1306900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1342100</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>1262800</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,153 +1079,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>22400</v>
+        <v>-135600</v>
       </c>
       <c r="E20" s="3">
-        <v>-60600</v>
+        <v>22200</v>
       </c>
       <c r="F20" s="3">
-        <v>234400</v>
+        <v>-60000</v>
       </c>
       <c r="G20" s="3">
-        <v>-671600</v>
+        <v>232200</v>
       </c>
       <c r="H20" s="3">
-        <v>-370000</v>
+        <v>-665200</v>
       </c>
       <c r="I20" s="3">
-        <v>-108000</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+        <v>-366500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>425300</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1931700</v>
+        <v>2763800</v>
       </c>
       <c r="E21" s="3">
-        <v>2683600</v>
+        <v>1913400</v>
       </c>
       <c r="F21" s="3">
-        <v>2285900</v>
+        <v>2658200</v>
       </c>
       <c r="G21" s="3">
-        <v>1776300</v>
+        <v>2264300</v>
       </c>
       <c r="H21" s="3">
-        <v>1755300</v>
+        <v>1759500</v>
       </c>
       <c r="I21" s="3">
-        <v>1948800</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+        <v>1738600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1930400</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>2224100</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>329200</v>
+        <v>322200</v>
       </c>
       <c r="E22" s="3">
-        <v>359500</v>
+        <v>326100</v>
       </c>
       <c r="F22" s="3">
-        <v>363400</v>
+        <v>356100</v>
       </c>
       <c r="G22" s="3">
-        <v>345000</v>
+        <v>360000</v>
       </c>
       <c r="H22" s="3">
-        <v>354200</v>
+        <v>341700</v>
       </c>
       <c r="I22" s="3">
-        <v>314700</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+        <v>350900</v>
+      </c>
+      <c r="J22" s="3">
+        <v>311700</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>308100</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>790100</v>
+        <v>1595200</v>
       </c>
       <c r="E23" s="3">
-        <v>1391800</v>
+        <v>782600</v>
       </c>
       <c r="F23" s="3">
-        <v>1058700</v>
+        <v>1378700</v>
       </c>
       <c r="G23" s="3">
-        <v>599100</v>
+        <v>1048700</v>
       </c>
       <c r="H23" s="3">
-        <v>595200</v>
+        <v>593500</v>
       </c>
       <c r="I23" s="3">
-        <v>932300</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+        <v>589500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>923500</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>1380000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>104000</v>
+        <v>413500</v>
       </c>
       <c r="E24" s="3">
-        <v>395000</v>
+        <v>103000</v>
       </c>
       <c r="F24" s="3">
-        <v>150100</v>
+        <v>391300</v>
       </c>
       <c r="G24" s="3">
-        <v>126400</v>
+        <v>148700</v>
       </c>
       <c r="H24" s="3">
-        <v>187000</v>
+        <v>125200</v>
       </c>
       <c r="I24" s="3">
-        <v>-193600</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+        <v>185200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-191700</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1269,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>686000</v>
+        <v>1181700</v>
       </c>
       <c r="E26" s="3">
-        <v>996800</v>
+        <v>679500</v>
       </c>
       <c r="F26" s="3">
-        <v>908600</v>
+        <v>987400</v>
       </c>
       <c r="G26" s="3">
-        <v>472700</v>
+        <v>900000</v>
       </c>
       <c r="H26" s="3">
-        <v>408200</v>
+        <v>468200</v>
       </c>
       <c r="I26" s="3">
-        <v>1125900</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+        <v>404300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1115200</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>1143000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>646500</v>
+        <v>1143900</v>
       </c>
       <c r="E27" s="3">
-        <v>966500</v>
+        <v>640400</v>
       </c>
       <c r="F27" s="3">
-        <v>888800</v>
+        <v>957400</v>
       </c>
       <c r="G27" s="3">
-        <v>449000</v>
+        <v>880400</v>
       </c>
       <c r="H27" s="3">
-        <v>381900</v>
+        <v>444800</v>
       </c>
       <c r="I27" s="3">
-        <v>1103500</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+        <v>378200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1093000</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>1123200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,8 +1365,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,8 +1397,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1429,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,66 +1461,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-22400</v>
+        <v>135600</v>
       </c>
       <c r="E32" s="3">
-        <v>60600</v>
+        <v>-22200</v>
       </c>
       <c r="F32" s="3">
-        <v>-234400</v>
+        <v>60000</v>
       </c>
       <c r="G32" s="3">
-        <v>671600</v>
+        <v>-232200</v>
       </c>
       <c r="H32" s="3">
-        <v>370000</v>
+        <v>665200</v>
       </c>
       <c r="I32" s="3">
-        <v>108000</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+        <v>366500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>107000</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>-425300</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>646500</v>
+        <v>1143900</v>
       </c>
       <c r="E33" s="3">
-        <v>966500</v>
+        <v>640400</v>
       </c>
       <c r="F33" s="3">
-        <v>888800</v>
+        <v>957400</v>
       </c>
       <c r="G33" s="3">
-        <v>449000</v>
+        <v>880400</v>
       </c>
       <c r="H33" s="3">
-        <v>381900</v>
+        <v>444800</v>
       </c>
       <c r="I33" s="3">
-        <v>1103500</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+        <v>378200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1093000</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>1123200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1557,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>646500</v>
+        <v>1143900</v>
       </c>
       <c r="E35" s="3">
-        <v>966500</v>
+        <v>640400</v>
       </c>
       <c r="F35" s="3">
-        <v>888800</v>
+        <v>957400</v>
       </c>
       <c r="G35" s="3">
-        <v>449000</v>
+        <v>880400</v>
       </c>
       <c r="H35" s="3">
-        <v>381900</v>
+        <v>444800</v>
       </c>
       <c r="I35" s="3">
-        <v>1103500</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+        <v>378200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1093000</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>1123200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E38" s="2">
         <v>43190</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43008</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42643</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42277</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1642,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,37 +1656,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>866400</v>
+        <v>1010800</v>
       </c>
       <c r="E41" s="3">
-        <v>821700</v>
+        <v>858200</v>
       </c>
       <c r="F41" s="3">
-        <v>859900</v>
+        <v>813900</v>
       </c>
       <c r="G41" s="3">
-        <v>1677600</v>
+        <v>851700</v>
       </c>
       <c r="H41" s="3">
-        <v>738700</v>
+        <v>1661700</v>
       </c>
       <c r="I41" s="3">
-        <v>2688900</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+        <v>731700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2663400</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>833500</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1593,211 +1718,235 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3837100</v>
+        <v>3585500</v>
       </c>
       <c r="E43" s="3">
-        <v>3434200</v>
+        <v>3800800</v>
       </c>
       <c r="F43" s="3">
-        <v>3675200</v>
+        <v>3401600</v>
       </c>
       <c r="G43" s="3">
-        <v>3576400</v>
+        <v>3640300</v>
       </c>
       <c r="H43" s="3">
-        <v>3485500</v>
+        <v>3542500</v>
       </c>
       <c r="I43" s="3">
-        <v>3305100</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+        <v>3452500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3273800</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>3781800</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4590300</v>
+        <v>4815500</v>
       </c>
       <c r="E44" s="3">
-        <v>4745700</v>
+        <v>4546800</v>
       </c>
       <c r="F44" s="3">
-        <v>5035400</v>
+        <v>4700700</v>
       </c>
       <c r="G44" s="3">
-        <v>4606100</v>
+        <v>4987700</v>
       </c>
       <c r="H44" s="3">
-        <v>5202600</v>
+        <v>4562500</v>
       </c>
       <c r="I44" s="3">
-        <v>3742300</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+        <v>5153300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3706800</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>4532400</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>55300</v>
+        <v>48300</v>
       </c>
       <c r="E45" s="3">
-        <v>79000</v>
+        <v>54800</v>
       </c>
       <c r="F45" s="3">
-        <v>46100</v>
+        <v>78300</v>
       </c>
       <c r="G45" s="3">
-        <v>60600</v>
+        <v>45700</v>
       </c>
       <c r="H45" s="3">
-        <v>52700</v>
+        <v>60000</v>
       </c>
       <c r="I45" s="3">
-        <v>97400</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
+        <v>52200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>96500</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9349200</v>
+        <v>9460200</v>
       </c>
       <c r="E46" s="3">
-        <v>9080600</v>
+        <v>9260600</v>
       </c>
       <c r="F46" s="3">
-        <v>9616500</v>
+        <v>8994500</v>
       </c>
       <c r="G46" s="3">
-        <v>9920700</v>
+        <v>9525400</v>
       </c>
       <c r="H46" s="3">
-        <v>9479600</v>
+        <v>9826700</v>
       </c>
       <c r="I46" s="3">
-        <v>9833800</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+        <v>9389700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>9740600</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>9267600</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1150900</v>
+        <v>1209100</v>
       </c>
       <c r="E47" s="3">
-        <v>1195600</v>
+        <v>1140000</v>
       </c>
       <c r="F47" s="3">
-        <v>1168000</v>
+        <v>1184300</v>
       </c>
       <c r="G47" s="3">
-        <v>1096900</v>
+        <v>1156900</v>
       </c>
       <c r="H47" s="3">
-        <v>979700</v>
+        <v>1086500</v>
       </c>
       <c r="I47" s="3">
-        <v>898100</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+        <v>970400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>889500</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>894100</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2437400</v>
+        <v>2466500</v>
       </c>
       <c r="E48" s="3">
-        <v>2455800</v>
+        <v>2414300</v>
       </c>
       <c r="F48" s="3">
-        <v>2574300</v>
+        <v>2432500</v>
       </c>
       <c r="G48" s="3">
-        <v>2579600</v>
+        <v>2549900</v>
       </c>
       <c r="H48" s="3">
-        <v>2362300</v>
+        <v>2555100</v>
       </c>
       <c r="I48" s="3">
-        <v>2328100</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+        <v>2339900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2306000</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>2262200</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24855700</v>
+        <v>24934500</v>
       </c>
       <c r="E49" s="3">
-        <v>26023700</v>
+        <v>24620200</v>
       </c>
       <c r="F49" s="3">
-        <v>26849300</v>
+        <v>25777100</v>
       </c>
       <c r="G49" s="3">
-        <v>27262800</v>
+        <v>26594900</v>
       </c>
       <c r="H49" s="3">
-        <v>25565500</v>
+        <v>27004400</v>
       </c>
       <c r="I49" s="3">
-        <v>24610800</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+        <v>25323200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>24377600</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>19113200</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +1974,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,37 +2006,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2072600</v>
+        <v>2165200</v>
       </c>
       <c r="E52" s="3">
-        <v>2051600</v>
+        <v>2053000</v>
       </c>
       <c r="F52" s="3">
-        <v>1673600</v>
+        <v>2032100</v>
       </c>
       <c r="G52" s="3">
-        <v>2237200</v>
+        <v>1657800</v>
       </c>
       <c r="H52" s="3">
-        <v>2014700</v>
+        <v>2216000</v>
       </c>
       <c r="I52" s="3">
-        <v>2009400</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+        <v>1995600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1990400</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>1877700</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,37 +2070,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39865800</v>
+        <v>40235400</v>
       </c>
       <c r="E54" s="3">
-        <v>40807300</v>
+        <v>39488000</v>
       </c>
       <c r="F54" s="3">
-        <v>41881800</v>
+        <v>40420600</v>
       </c>
       <c r="G54" s="3">
-        <v>43097200</v>
+        <v>41484900</v>
       </c>
       <c r="H54" s="3">
-        <v>40401800</v>
+        <v>42688800</v>
       </c>
       <c r="I54" s="3">
-        <v>39680100</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+        <v>40018800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>39304100</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>33414900</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2118,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,182 +2132,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10647600</v>
+        <v>10786600</v>
       </c>
       <c r="E57" s="3">
-        <v>10671300</v>
+        <v>10546700</v>
       </c>
       <c r="F57" s="3">
-        <v>9958900</v>
+        <v>10570100</v>
       </c>
       <c r="G57" s="3">
-        <v>10522500</v>
+        <v>9864500</v>
       </c>
       <c r="H57" s="3">
-        <v>9221500</v>
+        <v>10422700</v>
       </c>
       <c r="I57" s="3">
-        <v>8947600</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+        <v>9134100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>8862800</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>8382700</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4461300</v>
+        <v>3126400</v>
       </c>
       <c r="E58" s="3">
-        <v>3098400</v>
+        <v>4419000</v>
       </c>
       <c r="F58" s="3">
-        <v>3634300</v>
+        <v>3069000</v>
       </c>
       <c r="G58" s="3">
-        <v>2033100</v>
+        <v>3599900</v>
       </c>
       <c r="H58" s="3">
-        <v>3411800</v>
+        <v>2013900</v>
       </c>
       <c r="I58" s="3">
-        <v>2577000</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+        <v>3379500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2552500</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>3251200</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>504300</v>
+        <v>743500</v>
       </c>
       <c r="E59" s="3">
-        <v>554400</v>
+        <v>499600</v>
       </c>
       <c r="F59" s="3">
-        <v>571500</v>
+        <v>549100</v>
       </c>
       <c r="G59" s="3">
-        <v>776900</v>
+        <v>566100</v>
       </c>
       <c r="H59" s="3">
-        <v>704500</v>
+        <v>769500</v>
       </c>
       <c r="I59" s="3">
-        <v>512200</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+        <v>697800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>507400</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>454300</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15613200</v>
+        <v>14656500</v>
       </c>
       <c r="E60" s="3">
-        <v>14324000</v>
+        <v>15465200</v>
       </c>
       <c r="F60" s="3">
-        <v>14164700</v>
+        <v>14188300</v>
       </c>
       <c r="G60" s="3">
-        <v>13332500</v>
+        <v>14030500</v>
       </c>
       <c r="H60" s="3">
-        <v>13337800</v>
+        <v>13206100</v>
       </c>
       <c r="I60" s="3">
-        <v>12036800</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+        <v>13211400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>11922700</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>12088100</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12796600</v>
+        <v>12518800</v>
       </c>
       <c r="E61" s="3">
-        <v>13426000</v>
+        <v>12675300</v>
       </c>
       <c r="F61" s="3">
-        <v>15398500</v>
+        <v>13298700</v>
       </c>
       <c r="G61" s="3">
-        <v>16320300</v>
+        <v>15252600</v>
       </c>
       <c r="H61" s="3">
-        <v>15428800</v>
+        <v>16165600</v>
       </c>
       <c r="I61" s="3">
-        <v>16130700</v>
+        <v>15282600</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>15977800</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>10206400</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4399400</v>
+        <v>4653800</v>
       </c>
       <c r="E62" s="3">
-        <v>4859000</v>
+        <v>4357700</v>
       </c>
       <c r="F62" s="3">
-        <v>4884000</v>
+        <v>4812900</v>
       </c>
       <c r="G62" s="3">
-        <v>5883400</v>
+        <v>4837700</v>
       </c>
       <c r="H62" s="3">
-        <v>4693000</v>
+        <v>5827700</v>
       </c>
       <c r="I62" s="3">
-        <v>4012300</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+        <v>4648600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>3974200</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>4155800</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2354,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2386,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,37 +2418,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33496500</v>
+        <v>32709500</v>
       </c>
       <c r="E66" s="3">
-        <v>33322700</v>
+        <v>33179000</v>
       </c>
       <c r="F66" s="3">
-        <v>34992400</v>
+        <v>33006900</v>
       </c>
       <c r="G66" s="3">
-        <v>36103700</v>
+        <v>34660700</v>
       </c>
       <c r="H66" s="3">
-        <v>33973200</v>
+        <v>35761600</v>
       </c>
       <c r="I66" s="3">
-        <v>32665600</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+        <v>33651200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>32356000</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>26946800</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2466,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2496,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2528,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +2560,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,37 +2592,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2193800</v>
+        <v>-1500000</v>
       </c>
       <c r="E72" s="3">
-        <v>-1427400</v>
+        <v>-2173000</v>
       </c>
       <c r="F72" s="3">
-        <v>-2297800</v>
+        <v>-1413900</v>
       </c>
       <c r="G72" s="3">
-        <v>-2008100</v>
+        <v>-2276000</v>
       </c>
       <c r="H72" s="3">
-        <v>-1335200</v>
+        <v>-1989100</v>
       </c>
       <c r="I72" s="3">
-        <v>-414800</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+        <v>-1322600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-410900</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>-1016600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2656,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2688,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,37 +2720,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6369300</v>
+        <v>7525900</v>
       </c>
       <c r="E76" s="3">
-        <v>7484600</v>
+        <v>6308900</v>
       </c>
       <c r="F76" s="3">
-        <v>6889400</v>
+        <v>7413700</v>
       </c>
       <c r="G76" s="3">
-        <v>6993500</v>
+        <v>6824100</v>
       </c>
       <c r="H76" s="3">
-        <v>6428600</v>
+        <v>6927200</v>
       </c>
       <c r="I76" s="3">
-        <v>7014500</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+        <v>6367600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>6948100</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>6468100</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2784,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E80" s="2">
         <v>43190</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43008</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42643</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42277</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>646500</v>
+        <v>1143900</v>
       </c>
       <c r="E81" s="3">
-        <v>966500</v>
+        <v>640400</v>
       </c>
       <c r="F81" s="3">
-        <v>888800</v>
+        <v>957400</v>
       </c>
       <c r="G81" s="3">
-        <v>449000</v>
+        <v>880400</v>
       </c>
       <c r="H81" s="3">
-        <v>381900</v>
+        <v>444800</v>
       </c>
       <c r="I81" s="3">
-        <v>1103500</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+        <v>378200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1093000</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>1123200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,37 +2869,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>812500</v>
+        <v>846500</v>
       </c>
       <c r="E83" s="3">
-        <v>932300</v>
+        <v>804800</v>
       </c>
       <c r="F83" s="3">
-        <v>863800</v>
+        <v>923500</v>
       </c>
       <c r="G83" s="3">
-        <v>832200</v>
+        <v>855600</v>
       </c>
       <c r="H83" s="3">
-        <v>805900</v>
+        <v>824300</v>
       </c>
       <c r="I83" s="3">
-        <v>701800</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+        <v>798200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>695200</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>535900</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +2931,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +2963,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2995,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +3027,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3059,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1102200</v>
+        <v>2934700</v>
       </c>
       <c r="E89" s="3">
-        <v>3294600</v>
+        <v>1091700</v>
       </c>
       <c r="F89" s="3">
-        <v>741400</v>
+        <v>3263400</v>
       </c>
       <c r="G89" s="3">
-        <v>3748900</v>
+        <v>734300</v>
       </c>
       <c r="H89" s="3">
-        <v>408200</v>
+        <v>3713400</v>
       </c>
       <c r="I89" s="3">
-        <v>3825300</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+        <v>404300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>3789000</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>-208100</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,37 +3107,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-242300</v>
+        <v>-181300</v>
       </c>
       <c r="E91" s="3">
-        <v>-190900</v>
+        <v>-156500</v>
       </c>
       <c r="F91" s="3">
+        <v>-148700</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-100400</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-133000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-80900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-152600</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-101400</v>
       </c>
-      <c r="G91" s="3">
-        <v>-350300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-81600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-6228400</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-101400</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3169,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,37 +3201,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200200</v>
+        <v>-101700</v>
       </c>
       <c r="E94" s="3">
-        <v>-251500</v>
+        <v>-198300</v>
       </c>
       <c r="F94" s="3">
-        <v>-126400</v>
+        <v>-249100</v>
       </c>
       <c r="G94" s="3">
-        <v>-147500</v>
+        <v>-125200</v>
       </c>
       <c r="H94" s="3">
-        <v>-92200</v>
+        <v>-146100</v>
       </c>
       <c r="I94" s="3">
-        <v>-6195500</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+        <v>-91300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-6136800</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-108000</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,37 +3249,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1493200</v>
+        <v>-706900</v>
       </c>
       <c r="E96" s="3">
-        <v>-650500</v>
+        <v>-1479100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1361600</v>
+        <v>-644300</v>
       </c>
       <c r="G96" s="3">
-        <v>-592600</v>
+        <v>-1348700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1232500</v>
+        <v>-586900</v>
       </c>
       <c r="I96" s="3">
-        <v>-510900</v>
+        <v>-1220800</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-506100</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1146900</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3311,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3343,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,91 +3375,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-780900</v>
+        <v>-2688200</v>
       </c>
       <c r="E100" s="3">
-        <v>-3020700</v>
+        <v>-773500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1428700</v>
+        <v>-2992100</v>
       </c>
       <c r="G100" s="3">
-        <v>-2808700</v>
+        <v>-1415200</v>
       </c>
       <c r="H100" s="3">
-        <v>-2355700</v>
+        <v>-2782100</v>
       </c>
       <c r="I100" s="3">
-        <v>4294100</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+        <v>-2333400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>4253400</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-704500</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-76400</v>
+        <v>7800</v>
       </c>
       <c r="E101" s="3">
-        <v>-60600</v>
+        <v>-75600</v>
       </c>
       <c r="F101" s="3">
-        <v>-4000</v>
+        <v>-60000</v>
       </c>
       <c r="G101" s="3">
-        <v>158000</v>
+        <v>-3900</v>
       </c>
       <c r="H101" s="3">
-        <v>89500</v>
+        <v>156500</v>
       </c>
       <c r="I101" s="3">
-        <v>-68500</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+        <v>88700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-67800</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>44800</v>
+        <v>152600</v>
       </c>
       <c r="E102" s="3">
-        <v>-38200</v>
+        <v>44300</v>
       </c>
       <c r="F102" s="3">
-        <v>-817700</v>
+        <v>-37800</v>
       </c>
       <c r="G102" s="3">
-        <v>938900</v>
+        <v>-810000</v>
       </c>
       <c r="H102" s="3">
-        <v>-1950200</v>
+        <v>930000</v>
       </c>
       <c r="I102" s="3">
-        <v>1855400</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+        <v>-1931700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1837800</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>-1027100</v>
       </c>
     </row>

--- a/Financials/Quarterly/IMBBY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/IMBBY_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EB967D-F616-48EC-86DF-856304D69764}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="IMBBY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>IMBBY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,168 +654,194 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="F7" s="2">
         <v>43373</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43008</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42643</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42277</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42185</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21189800</v>
+        <v>22241500</v>
       </c>
       <c r="E8" s="3">
-        <v>18622900</v>
+        <v>18603500</v>
       </c>
       <c r="F8" s="3">
-        <v>20802400</v>
+        <v>20692700</v>
       </c>
       <c r="G8" s="3">
-        <v>18649000</v>
+        <v>18176900</v>
       </c>
       <c r="H8" s="3">
-        <v>19340300</v>
+        <v>20619000</v>
       </c>
       <c r="I8" s="3">
+        <v>18484600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>19169800</v>
+      </c>
+      <c r="K8" s="3">
         <v>16703000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>17164700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5840000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>15971300</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16622100</v>
+        <v>17814900</v>
       </c>
       <c r="E9" s="3">
-        <v>14777800</v>
+        <v>14963000</v>
       </c>
       <c r="F9" s="3">
-        <v>16450000</v>
+        <v>16456200</v>
       </c>
       <c r="G9" s="3">
-        <v>14618700</v>
+        <v>14643700</v>
       </c>
       <c r="H9" s="3">
-        <v>15265600</v>
+        <v>16304900</v>
       </c>
       <c r="I9" s="3">
+        <v>14489800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>15131000</v>
+      </c>
+      <c r="K9" s="3">
         <v>13009200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>13566100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>12795200</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>4567700</v>
+        <v>4426600</v>
       </c>
       <c r="E10" s="3">
-        <v>3845100</v>
+        <v>3640600</v>
       </c>
       <c r="F10" s="3">
-        <v>4352500</v>
+        <v>4236500</v>
       </c>
       <c r="G10" s="3">
-        <v>4030300</v>
+        <v>3533200</v>
       </c>
       <c r="H10" s="3">
-        <v>4074700</v>
+        <v>4314100</v>
       </c>
       <c r="I10" s="3">
+        <v>3994800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4038700</v>
+      </c>
+      <c r="K10" s="3">
         <v>3693800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3598600</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>3176100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -863,8 +854,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -895,8 +888,14 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,72 +926,90 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>118700</v>
+        <v>157700</v>
       </c>
       <c r="E14" s="3">
-        <v>137000</v>
+        <v>223700</v>
       </c>
       <c r="F14" s="3">
-        <v>79600</v>
+        <v>117600</v>
       </c>
       <c r="G14" s="3">
-        <v>370400</v>
+        <v>135700</v>
       </c>
       <c r="H14" s="3">
-        <v>189100</v>
+        <v>78900</v>
       </c>
       <c r="I14" s="3">
+        <v>367200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>187500</v>
+      </c>
+      <c r="K14" s="3">
         <v>211300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>354800</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>126400</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>687400</v>
+        <v>1061400</v>
       </c>
       <c r="E15" s="3">
-        <v>686100</v>
+        <v>384000</v>
       </c>
       <c r="F15" s="3">
-        <v>701700</v>
+        <v>681300</v>
       </c>
       <c r="G15" s="3">
-        <v>722600</v>
+        <v>680000</v>
       </c>
       <c r="H15" s="3">
-        <v>693900</v>
+        <v>695500</v>
       </c>
       <c r="I15" s="3">
+        <v>716200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>687800</v>
+      </c>
+      <c r="K15" s="3">
         <v>616900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>508700</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>404300</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1002,72 +1019,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19136800</v>
+        <v>20887900</v>
       </c>
       <c r="E17" s="3">
-        <v>17536400</v>
+        <v>17116800</v>
       </c>
       <c r="F17" s="3">
-        <v>19007700</v>
+        <v>18657800</v>
       </c>
       <c r="G17" s="3">
-        <v>17472500</v>
+        <v>17100000</v>
       </c>
       <c r="H17" s="3">
-        <v>17739900</v>
+        <v>18840100</v>
       </c>
       <c r="I17" s="3">
+        <v>17318500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>17583500</v>
+      </c>
+      <c r="K17" s="3">
         <v>15396100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>15822600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>14708500</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2053000</v>
+        <v>1353600</v>
       </c>
       <c r="E18" s="3">
-        <v>1086500</v>
+        <v>1486700</v>
       </c>
       <c r="F18" s="3">
-        <v>1794700</v>
+        <v>2034900</v>
       </c>
       <c r="G18" s="3">
-        <v>1176500</v>
+        <v>1076900</v>
       </c>
       <c r="H18" s="3">
-        <v>1600400</v>
+        <v>1778900</v>
       </c>
       <c r="I18" s="3">
+        <v>1166100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1586300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1306900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1342100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>1262800</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1080,168 +1111,200 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-135600</v>
+        <v>-174500</v>
       </c>
       <c r="E20" s="3">
-        <v>22200</v>
+        <v>121500</v>
       </c>
       <c r="F20" s="3">
-        <v>-60000</v>
+        <v>-134500</v>
       </c>
       <c r="G20" s="3">
-        <v>232200</v>
+        <v>22000</v>
       </c>
       <c r="H20" s="3">
-        <v>-665200</v>
+        <v>-59500</v>
       </c>
       <c r="I20" s="3">
+        <v>230100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-659300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-366500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-107000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>425300</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2763800</v>
+        <v>2346500</v>
       </c>
       <c r="E21" s="3">
-        <v>1913400</v>
+        <v>2142200</v>
       </c>
       <c r="F21" s="3">
-        <v>2658200</v>
+        <v>2739500</v>
       </c>
       <c r="G21" s="3">
-        <v>2264300</v>
+        <v>1896600</v>
       </c>
       <c r="H21" s="3">
-        <v>1759500</v>
+        <v>2634700</v>
       </c>
       <c r="I21" s="3">
+        <v>2244300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1744000</v>
+      </c>
+      <c r="K21" s="3">
         <v>1738600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1930400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>2224100</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>322200</v>
+        <v>310300</v>
       </c>
       <c r="E22" s="3">
-        <v>326100</v>
+        <v>292200</v>
       </c>
       <c r="F22" s="3">
-        <v>356100</v>
+        <v>319300</v>
       </c>
       <c r="G22" s="3">
-        <v>360000</v>
+        <v>323200</v>
       </c>
       <c r="H22" s="3">
-        <v>341700</v>
+        <v>352900</v>
       </c>
       <c r="I22" s="3">
+        <v>356800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>338700</v>
+      </c>
+      <c r="K22" s="3">
         <v>350900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>311700</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>308100</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1595200</v>
+        <v>868800</v>
       </c>
       <c r="E23" s="3">
-        <v>782600</v>
+        <v>1316100</v>
       </c>
       <c r="F23" s="3">
-        <v>1378700</v>
+        <v>1581100</v>
       </c>
       <c r="G23" s="3">
-        <v>1048700</v>
+        <v>775700</v>
       </c>
       <c r="H23" s="3">
-        <v>593500</v>
+        <v>1366500</v>
       </c>
       <c r="I23" s="3">
+        <v>1039400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>588200</v>
+      </c>
+      <c r="K23" s="3">
         <v>589500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>923500</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>1380000</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>413500</v>
+        <v>386600</v>
       </c>
       <c r="E24" s="3">
-        <v>103000</v>
+        <v>400800</v>
       </c>
       <c r="F24" s="3">
-        <v>391300</v>
+        <v>409800</v>
       </c>
       <c r="G24" s="3">
-        <v>148700</v>
+        <v>102100</v>
       </c>
       <c r="H24" s="3">
-        <v>125200</v>
+        <v>387800</v>
       </c>
       <c r="I24" s="3">
+        <v>147400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>124100</v>
+      </c>
+      <c r="K24" s="3">
         <v>185200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-191700</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1272,72 +1335,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1181700</v>
+        <v>482200</v>
       </c>
       <c r="E26" s="3">
-        <v>679500</v>
+        <v>915300</v>
       </c>
       <c r="F26" s="3">
-        <v>987400</v>
+        <v>1171300</v>
       </c>
       <c r="G26" s="3">
-        <v>900000</v>
+        <v>673600</v>
       </c>
       <c r="H26" s="3">
-        <v>468200</v>
+        <v>978700</v>
       </c>
       <c r="I26" s="3">
+        <v>892000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>464100</v>
+      </c>
+      <c r="K26" s="3">
         <v>404300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1115200</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>1143000</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1143900</v>
+        <v>427900</v>
       </c>
       <c r="E27" s="3">
-        <v>640400</v>
+        <v>877800</v>
       </c>
       <c r="F27" s="3">
-        <v>957400</v>
+        <v>1133800</v>
       </c>
       <c r="G27" s="3">
-        <v>880400</v>
+        <v>634800</v>
       </c>
       <c r="H27" s="3">
-        <v>444800</v>
+        <v>948900</v>
       </c>
       <c r="I27" s="3">
+        <v>872600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>440800</v>
+      </c>
+      <c r="K27" s="3">
         <v>378200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1093000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>1123200</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1368,8 +1449,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1400,8 +1487,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1432,8 +1525,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1464,72 +1563,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>135600</v>
+        <v>174500</v>
       </c>
       <c r="E32" s="3">
-        <v>-22200</v>
+        <v>-121500</v>
       </c>
       <c r="F32" s="3">
-        <v>60000</v>
+        <v>134500</v>
       </c>
       <c r="G32" s="3">
-        <v>-232200</v>
+        <v>-22000</v>
       </c>
       <c r="H32" s="3">
-        <v>665200</v>
+        <v>59500</v>
       </c>
       <c r="I32" s="3">
+        <v>-230100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>659300</v>
+      </c>
+      <c r="K32" s="3">
         <v>366500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>107000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>-425300</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1143900</v>
+        <v>427900</v>
       </c>
       <c r="E33" s="3">
-        <v>640400</v>
+        <v>877800</v>
       </c>
       <c r="F33" s="3">
-        <v>957400</v>
+        <v>1133800</v>
       </c>
       <c r="G33" s="3">
-        <v>880400</v>
+        <v>634800</v>
       </c>
       <c r="H33" s="3">
-        <v>444800</v>
+        <v>948900</v>
       </c>
       <c r="I33" s="3">
+        <v>872600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>440800</v>
+      </c>
+      <c r="K33" s="3">
         <v>378200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1093000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>1123200</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1560,77 +1677,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1143900</v>
+        <v>427900</v>
       </c>
       <c r="E35" s="3">
-        <v>640400</v>
+        <v>877800</v>
       </c>
       <c r="F35" s="3">
-        <v>957400</v>
+        <v>1133800</v>
       </c>
       <c r="G35" s="3">
-        <v>880400</v>
+        <v>634800</v>
       </c>
       <c r="H35" s="3">
-        <v>444800</v>
+        <v>948900</v>
       </c>
       <c r="I35" s="3">
+        <v>872600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>440800</v>
+      </c>
+      <c r="K35" s="3">
         <v>378200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1093000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>1123200</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="F38" s="2">
         <v>43373</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43008</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42643</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42277</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42185</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1643,8 +1778,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1657,40 +1794,48 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1010800</v>
+        <v>2955400</v>
       </c>
       <c r="E41" s="3">
-        <v>858200</v>
+        <v>696800</v>
       </c>
       <c r="F41" s="3">
-        <v>813900</v>
+        <v>1001900</v>
       </c>
       <c r="G41" s="3">
-        <v>851700</v>
+        <v>850700</v>
       </c>
       <c r="H41" s="3">
-        <v>1661700</v>
+        <v>806700</v>
       </c>
       <c r="I41" s="3">
+        <v>844200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1647000</v>
+      </c>
+      <c r="K41" s="3">
         <v>731700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2663400</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>833500</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1721,232 +1866,280 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3585500</v>
+        <v>4261100</v>
       </c>
       <c r="E43" s="3">
-        <v>3800800</v>
+        <v>4016800</v>
       </c>
       <c r="F43" s="3">
-        <v>3401600</v>
+        <v>3553900</v>
       </c>
       <c r="G43" s="3">
-        <v>3640300</v>
+        <v>3767200</v>
       </c>
       <c r="H43" s="3">
-        <v>3542500</v>
+        <v>3371600</v>
       </c>
       <c r="I43" s="3">
+        <v>3608200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3511300</v>
+      </c>
+      <c r="K43" s="3">
         <v>3452500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3273800</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>3781800</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4815500</v>
+        <v>5277300</v>
       </c>
       <c r="E44" s="3">
-        <v>4546800</v>
+        <v>5263000</v>
       </c>
       <c r="F44" s="3">
-        <v>4700700</v>
+        <v>4773100</v>
       </c>
       <c r="G44" s="3">
-        <v>4987700</v>
+        <v>4506700</v>
       </c>
       <c r="H44" s="3">
-        <v>4562500</v>
+        <v>4659300</v>
       </c>
       <c r="I44" s="3">
+        <v>4943700</v>
+      </c>
+      <c r="J44" s="3">
+        <v>4522200</v>
+      </c>
+      <c r="K44" s="3">
         <v>5153300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3706800</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>4532400</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>48300</v>
+        <v>1841000</v>
       </c>
       <c r="E45" s="3">
-        <v>54800</v>
+        <v>73700</v>
       </c>
       <c r="F45" s="3">
-        <v>78300</v>
+        <v>47800</v>
       </c>
       <c r="G45" s="3">
-        <v>45700</v>
+        <v>54300</v>
       </c>
       <c r="H45" s="3">
-        <v>60000</v>
+        <v>77600</v>
       </c>
       <c r="I45" s="3">
+        <v>45200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>59500</v>
+      </c>
+      <c r="K45" s="3">
         <v>52200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>96500</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9460200</v>
+        <v>14334700</v>
       </c>
       <c r="E46" s="3">
-        <v>9260600</v>
+        <v>10050300</v>
       </c>
       <c r="F46" s="3">
-        <v>8994500</v>
+        <v>9376800</v>
       </c>
       <c r="G46" s="3">
-        <v>9525400</v>
+        <v>9179000</v>
       </c>
       <c r="H46" s="3">
-        <v>9826700</v>
+        <v>8915200</v>
       </c>
       <c r="I46" s="3">
+        <v>9441400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>9740000</v>
+      </c>
+      <c r="K46" s="3">
         <v>9389700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>9740600</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>9267600</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1209100</v>
+        <v>258600</v>
       </c>
       <c r="E47" s="3">
-        <v>1140000</v>
+        <v>1193300</v>
       </c>
       <c r="F47" s="3">
-        <v>1184300</v>
+        <v>1198400</v>
       </c>
       <c r="G47" s="3">
-        <v>1156900</v>
+        <v>1129900</v>
       </c>
       <c r="H47" s="3">
-        <v>1086500</v>
+        <v>1173900</v>
       </c>
       <c r="I47" s="3">
+        <v>1146700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1076900</v>
+      </c>
+      <c r="K47" s="3">
         <v>970400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>889500</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>894100</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2466500</v>
+        <v>2558500</v>
       </c>
       <c r="E48" s="3">
-        <v>2414300</v>
+        <v>2418800</v>
       </c>
       <c r="F48" s="3">
-        <v>2432500</v>
+        <v>2444700</v>
       </c>
       <c r="G48" s="3">
-        <v>2549900</v>
+        <v>2393000</v>
       </c>
       <c r="H48" s="3">
-        <v>2555100</v>
+        <v>2411100</v>
       </c>
       <c r="I48" s="3">
+        <v>2527400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2532600</v>
+      </c>
+      <c r="K48" s="3">
         <v>2339900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2306000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>2262200</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24934500</v>
+        <v>24041100</v>
       </c>
       <c r="E49" s="3">
-        <v>24620200</v>
+        <v>23823900</v>
       </c>
       <c r="F49" s="3">
-        <v>25777100</v>
+        <v>24714600</v>
       </c>
       <c r="G49" s="3">
-        <v>26594900</v>
+        <v>24403100</v>
       </c>
       <c r="H49" s="3">
-        <v>27004400</v>
+        <v>25549800</v>
       </c>
       <c r="I49" s="3">
+        <v>26360400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>26766300</v>
+      </c>
+      <c r="K49" s="3">
         <v>25323200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>24377600</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>19113200</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,8 +2170,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,40 +2208,52 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2165200</v>
+        <v>2413700</v>
       </c>
       <c r="E52" s="3">
-        <v>2053000</v>
+        <v>2024500</v>
       </c>
       <c r="F52" s="3">
-        <v>2032100</v>
+        <v>2146100</v>
       </c>
       <c r="G52" s="3">
-        <v>1657800</v>
+        <v>2034900</v>
       </c>
       <c r="H52" s="3">
-        <v>2216000</v>
+        <v>2014200</v>
       </c>
       <c r="I52" s="3">
+        <v>1643200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2196500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1995600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1990400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>1877700</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2073,40 +2284,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>40235400</v>
+        <v>43606500</v>
       </c>
       <c r="E54" s="3">
-        <v>39488000</v>
+        <v>39510900</v>
       </c>
       <c r="F54" s="3">
-        <v>40420600</v>
+        <v>39880600</v>
       </c>
       <c r="G54" s="3">
-        <v>41484900</v>
+        <v>39139800</v>
       </c>
       <c r="H54" s="3">
-        <v>42688800</v>
+        <v>40064200</v>
       </c>
       <c r="I54" s="3">
+        <v>41119100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>42312400</v>
+      </c>
+      <c r="K54" s="3">
         <v>40018800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>39304100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>33414900</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2119,8 +2342,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2133,200 +2358,238 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10786600</v>
+        <v>12328200</v>
       </c>
       <c r="E57" s="3">
-        <v>10546700</v>
+        <v>9869300</v>
       </c>
       <c r="F57" s="3">
-        <v>10570100</v>
+        <v>10691500</v>
       </c>
       <c r="G57" s="3">
-        <v>9864500</v>
+        <v>10453700</v>
       </c>
       <c r="H57" s="3">
-        <v>10422700</v>
+        <v>10476900</v>
       </c>
       <c r="I57" s="3">
+        <v>9777500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>10330800</v>
+      </c>
+      <c r="K57" s="3">
         <v>9134100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8862800</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>8382700</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3126400</v>
+        <v>2504200</v>
       </c>
       <c r="E58" s="3">
-        <v>4419000</v>
+        <v>4275300</v>
       </c>
       <c r="F58" s="3">
-        <v>3069000</v>
+        <v>3098900</v>
       </c>
       <c r="G58" s="3">
-        <v>3599900</v>
+        <v>4380000</v>
       </c>
       <c r="H58" s="3">
-        <v>2013900</v>
+        <v>3042000</v>
       </c>
       <c r="I58" s="3">
+        <v>3568200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1996100</v>
+      </c>
+      <c r="K58" s="3">
         <v>3379500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2552500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>3251200</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>743500</v>
+        <v>1175200</v>
       </c>
       <c r="E59" s="3">
-        <v>499600</v>
+        <v>636100</v>
       </c>
       <c r="F59" s="3">
-        <v>549100</v>
+        <v>736900</v>
       </c>
       <c r="G59" s="3">
-        <v>566100</v>
+        <v>495100</v>
       </c>
       <c r="H59" s="3">
-        <v>769500</v>
+        <v>544300</v>
       </c>
       <c r="I59" s="3">
+        <v>561100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>762800</v>
+      </c>
+      <c r="K59" s="3">
         <v>697800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>507400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>454300</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14656500</v>
+        <v>16007600</v>
       </c>
       <c r="E60" s="3">
-        <v>15465200</v>
+        <v>14780700</v>
       </c>
       <c r="F60" s="3">
-        <v>14188300</v>
+        <v>14527300</v>
       </c>
       <c r="G60" s="3">
-        <v>14030500</v>
+        <v>15328800</v>
       </c>
       <c r="H60" s="3">
-        <v>13206100</v>
+        <v>14063200</v>
       </c>
       <c r="I60" s="3">
+        <v>13906800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>13089700</v>
+      </c>
+      <c r="K60" s="3">
         <v>13211400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>11922700</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>12088100</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12518800</v>
+        <v>15122000</v>
       </c>
       <c r="E61" s="3">
-        <v>12675300</v>
+        <v>12978500</v>
       </c>
       <c r="F61" s="3">
-        <v>13298700</v>
+        <v>12408400</v>
       </c>
       <c r="G61" s="3">
-        <v>15252600</v>
+        <v>12563500</v>
       </c>
       <c r="H61" s="3">
-        <v>16165600</v>
+        <v>13181500</v>
       </c>
       <c r="I61" s="3">
+        <v>15118100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>16023100</v>
+      </c>
+      <c r="K61" s="3">
         <v>15282600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>15977800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>10206400</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4653800</v>
+        <v>5257900</v>
       </c>
       <c r="E62" s="3">
-        <v>4357700</v>
+        <v>4607600</v>
       </c>
       <c r="F62" s="3">
-        <v>4812900</v>
+        <v>4612700</v>
       </c>
       <c r="G62" s="3">
-        <v>4837700</v>
+        <v>4319300</v>
       </c>
       <c r="H62" s="3">
-        <v>5827700</v>
+        <v>4770500</v>
       </c>
       <c r="I62" s="3">
+        <v>4795000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>5776300</v>
+      </c>
+      <c r="K62" s="3">
         <v>4648600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3974200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>4155800</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2357,8 +2620,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2389,8 +2658,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2421,40 +2696,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32709500</v>
+        <v>37223900</v>
       </c>
       <c r="E66" s="3">
-        <v>33179000</v>
+        <v>33155400</v>
       </c>
       <c r="F66" s="3">
-        <v>33006900</v>
+        <v>32421100</v>
       </c>
       <c r="G66" s="3">
-        <v>34660700</v>
+        <v>32886500</v>
       </c>
       <c r="H66" s="3">
-        <v>35761600</v>
+        <v>32715800</v>
       </c>
       <c r="I66" s="3">
+        <v>34355100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>35446300</v>
+      </c>
+      <c r="K66" s="3">
         <v>33651200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>32356000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>26946800</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2467,8 +2754,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2499,8 +2788,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2531,8 +2826,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2563,8 +2864,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2595,40 +2902,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1500000</v>
+        <v>-2915300</v>
       </c>
       <c r="E72" s="3">
-        <v>-2173000</v>
+        <v>-2332200</v>
       </c>
       <c r="F72" s="3">
-        <v>-1413900</v>
+        <v>-1486700</v>
       </c>
       <c r="G72" s="3">
-        <v>-2276000</v>
+        <v>-2153800</v>
       </c>
       <c r="H72" s="3">
-        <v>-1989100</v>
+        <v>-1401400</v>
       </c>
       <c r="I72" s="3">
+        <v>-2256000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-1971500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1322600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-410900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>-1016600</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2659,8 +2978,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2691,8 +3016,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2723,40 +3054,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7525900</v>
+        <v>6382600</v>
       </c>
       <c r="E76" s="3">
-        <v>6308900</v>
+        <v>6355500</v>
       </c>
       <c r="F76" s="3">
-        <v>7413700</v>
+        <v>7459500</v>
       </c>
       <c r="G76" s="3">
-        <v>6824100</v>
+        <v>6253300</v>
       </c>
       <c r="H76" s="3">
-        <v>6927200</v>
+        <v>7348300</v>
       </c>
       <c r="I76" s="3">
+        <v>6764000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>6866100</v>
+      </c>
+      <c r="K76" s="3">
         <v>6367600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>6948100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>6468100</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2787,77 +3130,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="F80" s="2">
         <v>43373</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43008</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42643</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42277</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42185</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1143900</v>
+        <v>427900</v>
       </c>
       <c r="E81" s="3">
-        <v>640400</v>
+        <v>877800</v>
       </c>
       <c r="F81" s="3">
-        <v>957400</v>
+        <v>1133800</v>
       </c>
       <c r="G81" s="3">
-        <v>880400</v>
+        <v>634800</v>
       </c>
       <c r="H81" s="3">
-        <v>444800</v>
+        <v>948900</v>
       </c>
       <c r="I81" s="3">
+        <v>872600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>440800</v>
+      </c>
+      <c r="K81" s="3">
         <v>378200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1093000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>1123200</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2870,40 +3231,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>846500</v>
+        <v>1167400</v>
       </c>
       <c r="E83" s="3">
-        <v>804800</v>
+        <v>533900</v>
       </c>
       <c r="F83" s="3">
-        <v>923500</v>
+        <v>839000</v>
       </c>
       <c r="G83" s="3">
-        <v>855600</v>
+        <v>797700</v>
       </c>
       <c r="H83" s="3">
-        <v>824300</v>
+        <v>915300</v>
       </c>
       <c r="I83" s="3">
+        <v>848100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>817100</v>
+      </c>
+      <c r="K83" s="3">
         <v>798200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>695200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>535900</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2934,8 +3303,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2966,8 +3341,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2998,8 +3379,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3030,8 +3417,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3062,40 +3455,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2934700</v>
+        <v>4232700</v>
       </c>
       <c r="E89" s="3">
-        <v>1091700</v>
+        <v>-67200</v>
       </c>
       <c r="F89" s="3">
-        <v>3263400</v>
+        <v>2908800</v>
       </c>
       <c r="G89" s="3">
-        <v>734300</v>
+        <v>1082100</v>
       </c>
       <c r="H89" s="3">
-        <v>3713400</v>
+        <v>3234600</v>
       </c>
       <c r="I89" s="3">
+        <v>727900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>3680600</v>
+      </c>
+      <c r="K89" s="3">
         <v>404300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>3789000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>-208100</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3108,40 +3513,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-181300</v>
+        <v>-283100</v>
       </c>
       <c r="E91" s="3">
-        <v>-156500</v>
+        <v>-245600</v>
       </c>
       <c r="F91" s="3">
-        <v>-148700</v>
+        <v>-179700</v>
       </c>
       <c r="G91" s="3">
-        <v>-100400</v>
+        <v>-155100</v>
       </c>
       <c r="H91" s="3">
-        <v>-133000</v>
+        <v>-147400</v>
       </c>
       <c r="I91" s="3">
+        <v>-99500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-131900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-80900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-152600</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-101400</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3172,8 +3585,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3204,40 +3623,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-101700</v>
+        <v>-373600</v>
       </c>
       <c r="E94" s="3">
-        <v>-198300</v>
+        <v>-175800</v>
       </c>
       <c r="F94" s="3">
-        <v>-249100</v>
+        <v>-100800</v>
       </c>
       <c r="G94" s="3">
-        <v>-125200</v>
+        <v>-196500</v>
       </c>
       <c r="H94" s="3">
-        <v>-146100</v>
+        <v>-246900</v>
       </c>
       <c r="I94" s="3">
+        <v>-124100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-144800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-91300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-6136800</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-108000</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3250,40 +3681,48 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-706900</v>
+        <v>-770500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1479100</v>
+        <v>-1613400</v>
       </c>
       <c r="F96" s="3">
-        <v>-644300</v>
+        <v>-700700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1348700</v>
+        <v>-1466000</v>
       </c>
       <c r="H96" s="3">
-        <v>-586900</v>
+        <v>-638600</v>
       </c>
       <c r="I96" s="3">
+        <v>-1336800</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-581800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1220800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-506100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1146900</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3314,8 +3753,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3346,8 +3791,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3378,100 +3829,124 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2688200</v>
+        <v>-1634100</v>
       </c>
       <c r="E100" s="3">
-        <v>-773500</v>
+        <v>-9000</v>
       </c>
       <c r="F100" s="3">
-        <v>-2992100</v>
+        <v>-2664500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1415200</v>
+        <v>-766600</v>
       </c>
       <c r="H100" s="3">
-        <v>-2782100</v>
+        <v>-2965700</v>
       </c>
       <c r="I100" s="3">
+        <v>-1402700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-2757600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2333400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>4253400</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-704500</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="F101" s="3">
         <v>7800</v>
       </c>
-      <c r="E101" s="3">
-        <v>-75600</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-60000</v>
-      </c>
       <c r="G101" s="3">
+        <v>-75000</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-59500</v>
+      </c>
+      <c r="I101" s="3">
         <v>-3900</v>
       </c>
-      <c r="H101" s="3">
-        <v>156500</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>155100</v>
+      </c>
+      <c r="K101" s="3">
         <v>88700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-67800</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>152600</v>
+        <v>2258500</v>
       </c>
       <c r="E102" s="3">
-        <v>44300</v>
+        <v>-305100</v>
       </c>
       <c r="F102" s="3">
-        <v>-37800</v>
+        <v>151300</v>
       </c>
       <c r="G102" s="3">
-        <v>-810000</v>
+        <v>44000</v>
       </c>
       <c r="H102" s="3">
-        <v>930000</v>
+        <v>-37500</v>
       </c>
       <c r="I102" s="3">
+        <v>-802800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>921800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1931700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1837800</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>-1027100</v>
       </c>
     </row>
